--- a/biology/Histoire de la zoologie et de la botanique/Karl_Anton_Eugen_Prantl/Karl_Anton_Eugen_Prantl.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Anton_Eugen_Prantl/Karl_Anton_Eugen_Prantl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl (ou Carl) Anton Eugen Prantl est un botaniste bavarois, né le 10 septembre 1849 à Munich et mort le 24 février 1893.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Munich et est diplômé en 1870 avec une thèse intitulée Das Inulin. Ein Beitrag zur Pflanzenphysiologie (L’Inuline, une contribution à la physiologie végétale). Il travaille avec Karl Wilhelm von Nägeli (1817-1891) et Julius von Sachs (1832-1897).
 En 1877, il devient professeur à l’institut de pédagogie forestière d’Aschaffenbourg, qui est transféré à l’université de Breslau en 1889, où il assure également la direction du jardin botanique de l’université. Prantl travaille principalement sur les cryptogames.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voir les publications disponibles sur biodiversitylibrary.org.
 1887 : Lehrbuch der Botanik (Manuel de botanique), 7 éditions, Leipzig.
